--- a/m02/doc/TdBallControl.xlsx
+++ b/m02/doc/TdBallControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6692DF84-2110-4BBE-863D-9C41536E4A71}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C0D55-71E1-4C13-B816-4DF2F59B00BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setting.ini" sheetId="5" r:id="rId1"/>
@@ -387,6 +387,11 @@
 gendir=C:\Project\angular\m02\my-app\src\app\state\src_x000D_
 genrdir=..\my-app\src\app\state\src_x000D_
 _x000D_
+[macro]
+; This section has macro defines for converting.
+; commentline format  {%0} will be replaced to a comment.
+commentline=// {%0}
+@branch=this.{%0}(this.{%1})
 [jpn]_x000D_
 title=Angular typescript サンプル１_x000D_
 _x000D_
@@ -439,6 +444,7 @@
 [2018.6.12]_x000D_
 @@@_x000D_
 </t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1070,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -1167,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/m02/doc/TdBallControl.xlsx
+++ b/m02/doc/TdBallControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C0D55-71E1-4C13-B816-4DF2F59B00BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED7928-4846-4C2E-94A9-79711F6E583B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setting.ini" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>thumbnail</t>
   </si>
@@ -308,8 +308,108 @@
 @@@</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/18 16:34:47
-; * pssgEditor version : 0.7.0.b0081ca2ae62b99c38b127566c8ee8eedac0f9a6
+    <t xml:space="preserve">[setting]_x000D_
+_x000D_
+converter=psggConverterLib.dll_x000D_
+_x000D_
+viewbat=TdBallControl_view.bat_x000D_
+xls=TdBallControl.xlsx_x000D_
+sub_src=TdBallControlSub.ts_x000D_
+gen_src=TdBallControl.ts_x000D_
+_x000D_
+manager_src=state-manager.ts_x000D_
+manager_dir=base_x000D_
+_x000D_
+template_src=template-source.txt_x000D_
+template_func=template-statefunc.txt_x000D_
+_x000D_
+help=help.ini_x000D_
+_x000D_
+[setupinfo]_x000D_
+_x000D_
+lang=typescript_x000D_
+framework=angular_x000D_
+_x000D_
+prefix=TdBall_x000D_
+xlsdir=C:\Project\angular\m02\doc_x000D_
+gendir=C:\Project\angular\m02\my-app\src\app\state\src_x000D_
+genrdir=..\my-app\src\app\state\src_x000D_
+_x000D_
+[macro]
+; This section has macro defines for converting.
+; commentline format  {%0} will be replaced to a comment.
+commentline=// {%0}
+@branch=this.{%0}(this.{%1})
+[jpn]_x000D_
+title=Angular typescript サンプル１_x000D_
+_x000D_
+detail=@@@_x000D_
+ステートマシンを構成するファイルを作成します。_x000D_
+# ドキュメントとビュアー_x000D_
+  フォルダ: _x000D_
+      C:\Project\angular\m02\doc_x000D_
+  ファイル:_x000D_
+      TdBallControl.xlsx_x000D_
+      TdBallControl_view.bat_x000D_
+# ソース_x000D_
+  フォルダ:_x000D_
+      C:\Project\angular\m02\my-app\src\app\state\src_x000D_
+　ファイル:_x000D_
+      TdBallControlSub.ts_x000D_
+      TdBallControl.ts_x000D_
+  ※共通管理ソース_x000D_
+  フォルダ:_x000D_
+      C:\Project\angular\m02\my-app\src\app\state\src/base_x000D_
+　ファイル:_x000D_
+      StateManager.ts_x000D_
+_x000D_
+[2018.6.12]_x000D_
+@@@_x000D_
+_x000D_
+[en]_x000D_
+title=Angular typescript sample 1_x000D_
+_x000D_
+detail=@@@_x000D_
+The files to implement a state machine will be created. _x000D_
+# Document and viewer_x000D_
+  Folder: _x000D_
+      C:\Project\angular\m02\doc_x000D_
+  File:_x000D_
+      TdBallControl.xlsx_x000D_
+      TdBallControl_view.bat_x000D_
+# Source_x000D_
+  Folder:_x000D_
+      C:\Project\angular\m02\my-app\src\app\state\src_x000D_
+　File:_x000D_
+      TdBallControlSub.ts_x000D_
+      TdBallControl.ts_x000D_
+  ※Common Management Source_x000D_
+  Folder:_x000D_
+      C:\Project\angular\m02\my-app\src\app\state\src/base_x000D_
+  File:_x000D_
+      StateManager.ts _x000D_
+　_x000D_
+[2018.6.12]_x000D_
+@@@_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_0001</t>
+  </si>
+  <si>
+    <t>new state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/
+(100,100)
+</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/04 22:40:57
+; * pssgEditor version : 0.8.0.no hash because of debug
 psggfile=@@@
 TdBallControl.psgg
 @@@
@@ -334,7 +434,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":37.6470566,"y":78.8823547}},{"Key":"S_END","Value":{"x":1057.17651,"y":102.156784}},{"Key":"S_INIT","Value":{"x":265,"y":81}},{"Key":"S_MOVE","Value":{"x":512,"y":81}},{"Key":"S_DESTROY","Value":{"x":759,"y":81}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":37.6470566,"y":78.8823547}},{"Key":"S_END","Value":{"x":1057.17651,"y":102.156784}},{"Key":"S_INIT","Value":{"x":265,"y":81}},{"Key":"S_MOVE","Value":{"x":512,"y":81}},{"Key":"S_DESTROY","Value":{"x":759,"y":81}},{"Key":"S_0001","Value":{"x":77.90697,"y":302.325623}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -347,7 +447,7 @@
 label_show=0
 label_text=@@@
 @@@
-option_delete_thisstring=0
+option_delete_thisstring=1
 option_delete_br_string=0
 font_name=@@@
 MS UI Gothic
@@ -358,93 +458,6 @@
 comment_block_height=45
 line_space=0
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[setting]_x000D_
-_x000D_
-converter=psggConverterLib.dll_x000D_
-_x000D_
-viewbat=TdBallControl_view.bat_x000D_
-xls=TdBallControl.xlsx_x000D_
-sub_src=TdBallControlSub.ts_x000D_
-gen_src=TdBallControl.ts_x000D_
-_x000D_
-manager_src=state-manager.ts_x000D_
-manager_dir=base_x000D_
-_x000D_
-template_src=template-source.txt_x000D_
-template_func=template-statefunc.txt_x000D_
-_x000D_
-help=help.ini_x000D_
-_x000D_
-[setupinfo]_x000D_
-_x000D_
-lang=typescript_x000D_
-framework=angular_x000D_
-_x000D_
-prefix=TdBall_x000D_
-xlsdir=C:\Project\angular\m02\doc_x000D_
-gendir=C:\Project\angular\m02\my-app\src\app\state\src_x000D_
-genrdir=..\my-app\src\app\state\src_x000D_
-_x000D_
-[macro]
-; This section has macro defines for converting.
-; commentline format  {%0} will be replaced to a comment.
-commentline=// {%0}
-@branch=this.{%0}(this.{%1})
-[jpn]_x000D_
-title=Angular typescript サンプル１_x000D_
-_x000D_
-detail=@@@_x000D_
-ステートマシンを構成するファイルを作成します。_x000D_
-# ドキュメントとビュアー_x000D_
-  フォルダ: _x000D_
-      C:\Project\angular\m02\doc_x000D_
-  ファイル:_x000D_
-      TdBallControl.xlsx_x000D_
-      TdBallControl_view.bat_x000D_
-# ソース_x000D_
-  フォルダ:_x000D_
-      C:\Project\angular\m02\my-app\src\app\state\src_x000D_
-　ファイル:_x000D_
-      TdBallControlSub.ts_x000D_
-      TdBallControl.ts_x000D_
-  ※共通管理ソース_x000D_
-  フォルダ:_x000D_
-      C:\Project\angular\m02\my-app\src\app\state\src/base_x000D_
-　ファイル:_x000D_
-      StateManager.ts_x000D_
-_x000D_
-[2018.6.12]_x000D_
-@@@_x000D_
-_x000D_
-[en]_x000D_
-title=Angular typescript sample 1_x000D_
-_x000D_
-detail=@@@_x000D_
-The files to implement a state machine will be created. _x000D_
-# Document and viewer_x000D_
-  Folder: _x000D_
-      C:\Project\angular\m02\doc_x000D_
-  File:_x000D_
-      TdBallControl.xlsx_x000D_
-      TdBallControl_view.bat_x000D_
-# Source_x000D_
-  Folder:_x000D_
-      C:\Project\angular\m02\my-app\src\app\state\src_x000D_
-　File:_x000D_
-      TdBallControlSub.ts_x000D_
-      TdBallControl.ts_x000D_
-  ※Common Management Source_x000D_
-  Folder:_x000D_
-      C:\Project\angular\m02\my-app\src\app\state\src/base_x000D_
-  File:_x000D_
-      StateManager.ts _x000D_
-　_x000D_
-[2018.6.12]_x000D_
-@@@_x000D_
-</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1076,13 +1089,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1172,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1228,7 +1241,9 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1269,7 +1284,9 @@
       <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1699,7 +1716,9 @@
       <c r="E17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -1738,7 +1757,9 @@
       <c r="E18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
